--- a/config_6.8/shoping_config_cjj.xlsx
+++ b/config_6.8/shoping_config_cjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1840">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6717,9 +6717,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6754,29 +6754,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -6784,23 +6761,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6814,15 +6776,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6838,17 +6831,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6868,13 +6860,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6883,16 +6869,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6984,7 +6984,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6996,19 +7068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7020,19 +7080,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7044,97 +7122,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7174,6 +7174,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7185,6 +7205,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7207,67 +7266,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7279,10 +7279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7291,133 +7291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10133,14 +10133,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF654"/>
+  <dimension ref="A1:AIF661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AL625" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AL634" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP649" sqref="AP649"/>
+      <selection pane="bottomRight" activeCell="G655" sqref="G655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -48331,8 +48331,8 @@
       <c r="B599" s="28">
         <v>10515</v>
       </c>
-      <c r="F599" s="28">
-        <v>1</v>
+      <c r="F599" s="21">
+        <v>0</v>
       </c>
       <c r="G599" s="28" t="s">
         <v>1385</v>
@@ -48399,8 +48399,8 @@
       <c r="B600" s="28">
         <v>10516</v>
       </c>
-      <c r="F600" s="28">
-        <v>1</v>
+      <c r="F600" s="21">
+        <v>0</v>
       </c>
       <c r="G600" s="28" t="s">
         <v>1385</v>
@@ -48467,8 +48467,8 @@
       <c r="B601" s="28">
         <v>10517</v>
       </c>
-      <c r="F601" s="28">
-        <v>1</v>
+      <c r="F601" s="21">
+        <v>0</v>
       </c>
       <c r="G601" s="28" t="s">
         <v>1385</v>
@@ -48535,8 +48535,8 @@
       <c r="B602" s="28">
         <v>10518</v>
       </c>
-      <c r="F602" s="28">
-        <v>1</v>
+      <c r="F602" s="21">
+        <v>0</v>
       </c>
       <c r="G602" s="28" t="s">
         <v>1385</v>
@@ -48603,8 +48603,8 @@
       <c r="B603" s="28">
         <v>10519</v>
       </c>
-      <c r="F603" s="28">
-        <v>1</v>
+      <c r="F603" s="21">
+        <v>0</v>
       </c>
       <c r="G603" s="28" t="s">
         <v>1385</v>
@@ -48671,8 +48671,8 @@
       <c r="B604" s="28">
         <v>10520</v>
       </c>
-      <c r="F604" s="28">
-        <v>1</v>
+      <c r="F604" s="21">
+        <v>0</v>
       </c>
       <c r="G604" s="28" t="s">
         <v>1385</v>
@@ -48739,8 +48739,8 @@
       <c r="B605" s="28">
         <v>10521</v>
       </c>
-      <c r="F605" s="28">
-        <v>1</v>
+      <c r="F605" s="21">
+        <v>0</v>
       </c>
       <c r="G605" s="28" t="s">
         <v>1385</v>
@@ -48807,8 +48807,8 @@
       <c r="B606" s="28">
         <v>10522</v>
       </c>
-      <c r="F606" s="28">
-        <v>1</v>
+      <c r="F606" s="21">
+        <v>0</v>
       </c>
       <c r="G606" s="28" t="s">
         <v>1385</v>
@@ -48875,8 +48875,8 @@
       <c r="B607" s="28">
         <v>10523</v>
       </c>
-      <c r="F607" s="28">
-        <v>1</v>
+      <c r="F607" s="21">
+        <v>0</v>
       </c>
       <c r="G607" s="28" t="s">
         <v>1385</v>
@@ -48943,8 +48943,8 @@
       <c r="B608" s="28">
         <v>10524</v>
       </c>
-      <c r="F608" s="28">
-        <v>1</v>
+      <c r="F608" s="21">
+        <v>0</v>
       </c>
       <c r="G608" s="28" t="s">
         <v>1385</v>
@@ -49011,8 +49011,8 @@
       <c r="B609" s="28">
         <v>10525</v>
       </c>
-      <c r="F609" s="28">
-        <v>1</v>
+      <c r="F609" s="21">
+        <v>0</v>
       </c>
       <c r="G609" s="28" t="s">
         <v>1385</v>
@@ -49079,8 +49079,8 @@
       <c r="B610" s="28">
         <v>10526</v>
       </c>
-      <c r="F610" s="28">
-        <v>1</v>
+      <c r="F610" s="21">
+        <v>0</v>
       </c>
       <c r="G610" s="28" t="s">
         <v>1385</v>
@@ -49147,8 +49147,8 @@
       <c r="B611" s="30">
         <v>10527</v>
       </c>
-      <c r="F611" s="30">
-        <v>1</v>
+      <c r="F611" s="21">
+        <v>0</v>
       </c>
       <c r="G611" s="30" t="s">
         <v>1570</v>
@@ -49209,8 +49209,8 @@
       <c r="B612" s="30">
         <v>10528</v>
       </c>
-      <c r="F612" s="30">
-        <v>1</v>
+      <c r="F612" s="21">
+        <v>0</v>
       </c>
       <c r="G612" s="30" t="s">
         <v>1570</v>
@@ -49271,8 +49271,8 @@
       <c r="B613" s="30">
         <v>10529</v>
       </c>
-      <c r="F613" s="30">
-        <v>1</v>
+      <c r="F613" s="21">
+        <v>0</v>
       </c>
       <c r="G613" s="30" t="s">
         <v>1570</v>
@@ -49333,8 +49333,8 @@
       <c r="B614" s="30">
         <v>10530</v>
       </c>
-      <c r="F614" s="30">
-        <v>1</v>
+      <c r="F614" s="21">
+        <v>0</v>
       </c>
       <c r="G614" s="30" t="s">
         <v>1570</v>
@@ -49395,8 +49395,8 @@
       <c r="B615" s="30">
         <v>10531</v>
       </c>
-      <c r="F615" s="30">
-        <v>1</v>
+      <c r="F615" s="21">
+        <v>0</v>
       </c>
       <c r="G615" s="30" t="s">
         <v>1570</v>
@@ -49457,8 +49457,8 @@
       <c r="B616" s="30">
         <v>10532</v>
       </c>
-      <c r="F616" s="30">
-        <v>1</v>
+      <c r="F616" s="21">
+        <v>0</v>
       </c>
       <c r="G616" s="30" t="s">
         <v>1570</v>
@@ -49519,8 +49519,8 @@
       <c r="B617" s="30">
         <v>10533</v>
       </c>
-      <c r="F617" s="30">
-        <v>1</v>
+      <c r="F617" s="21">
+        <v>0</v>
       </c>
       <c r="G617" s="30" t="s">
         <v>1584</v>
@@ -49584,8 +49584,8 @@
       <c r="B618" s="30">
         <v>10534</v>
       </c>
-      <c r="F618" s="30">
-        <v>1</v>
+      <c r="F618" s="21">
+        <v>0</v>
       </c>
       <c r="G618" s="30" t="s">
         <v>1584</v>
@@ -49652,8 +49652,8 @@
       <c r="C619"/>
       <c r="D619"/>
       <c r="E619"/>
-      <c r="F619" s="30">
-        <v>1</v>
+      <c r="F619" s="21">
+        <v>0</v>
       </c>
       <c r="G619" s="30" t="s">
         <v>1585</v>
@@ -50614,8 +50614,8 @@
       <c r="C620"/>
       <c r="D620"/>
       <c r="E620"/>
-      <c r="F620" s="30">
-        <v>1</v>
+      <c r="F620" s="21">
+        <v>0</v>
       </c>
       <c r="G620" s="30" t="s">
         <v>1585</v>
@@ -51576,8 +51576,8 @@
       <c r="C621"/>
       <c r="D621"/>
       <c r="E621"/>
-      <c r="F621" s="30">
-        <v>1</v>
+      <c r="F621" s="21">
+        <v>0</v>
       </c>
       <c r="G621" s="30" t="s">
         <v>1585</v>
@@ -52538,8 +52538,8 @@
       <c r="C622"/>
       <c r="D622"/>
       <c r="E622"/>
-      <c r="F622" s="30">
-        <v>1</v>
+      <c r="F622" s="21">
+        <v>0</v>
       </c>
       <c r="G622" s="30" t="s">
         <v>1585</v>
@@ -53500,8 +53500,8 @@
       <c r="C623"/>
       <c r="D623"/>
       <c r="E623"/>
-      <c r="F623" s="30">
-        <v>1</v>
+      <c r="F623" s="21">
+        <v>0</v>
       </c>
       <c r="G623" s="30" t="s">
         <v>1585</v>
@@ -54462,8 +54462,8 @@
       <c r="C624"/>
       <c r="D624"/>
       <c r="E624"/>
-      <c r="F624" s="30">
-        <v>1</v>
+      <c r="F624" s="21">
+        <v>0</v>
       </c>
       <c r="G624" s="30" t="s">
         <v>1585</v>
@@ -55424,8 +55424,8 @@
       <c r="C625"/>
       <c r="D625"/>
       <c r="E625"/>
-      <c r="F625" s="30">
-        <v>1</v>
+      <c r="F625" s="21">
+        <v>0</v>
       </c>
       <c r="G625" s="30" t="s">
         <v>1585</v>
@@ -56386,8 +56386,8 @@
       <c r="C626"/>
       <c r="D626"/>
       <c r="E626"/>
-      <c r="F626" s="30">
-        <v>1</v>
+      <c r="F626" s="21">
+        <v>0</v>
       </c>
       <c r="G626" s="30" t="s">
         <v>1585</v>
@@ -57348,8 +57348,8 @@
       <c r="C627"/>
       <c r="D627"/>
       <c r="E627"/>
-      <c r="F627" s="30">
-        <v>1</v>
+      <c r="F627" s="21">
+        <v>0</v>
       </c>
       <c r="G627" s="30" t="s">
         <v>1585</v>
@@ -58307,8 +58307,8 @@
       <c r="B628" s="30">
         <v>10544</v>
       </c>
-      <c r="F628" s="30">
-        <v>1</v>
+      <c r="F628" s="21">
+        <v>0</v>
       </c>
       <c r="G628" s="30" t="s">
         <v>1112</v>
@@ -58369,8 +58369,8 @@
       <c r="B629" s="30">
         <v>10545</v>
       </c>
-      <c r="F629" s="30">
-        <v>1</v>
+      <c r="F629" s="21">
+        <v>0</v>
       </c>
       <c r="G629" s="30" t="s">
         <v>1116</v>
@@ -58431,8 +58431,8 @@
       <c r="B630" s="30">
         <v>10546</v>
       </c>
-      <c r="F630" s="30">
-        <v>1</v>
+      <c r="F630" s="21">
+        <v>0</v>
       </c>
       <c r="G630" s="30" t="s">
         <v>1119</v>
@@ -58493,8 +58493,8 @@
       <c r="B631" s="30">
         <v>10547</v>
       </c>
-      <c r="F631" s="30">
-        <v>1</v>
+      <c r="F631" s="21">
+        <v>0</v>
       </c>
       <c r="G631" s="30" t="s">
         <v>1123</v>
@@ -58555,8 +58555,8 @@
       <c r="B632" s="30">
         <v>10548</v>
       </c>
-      <c r="F632" s="30">
-        <v>1</v>
+      <c r="F632" s="21">
+        <v>0</v>
       </c>
       <c r="G632" s="30" t="s">
         <v>1126</v>
@@ -58617,8 +58617,8 @@
       <c r="B633" s="30">
         <v>10549</v>
       </c>
-      <c r="F633" s="30">
-        <v>1</v>
+      <c r="F633" s="21">
+        <v>0</v>
       </c>
       <c r="G633" s="30" t="s">
         <v>1129</v>
@@ -58679,8 +58679,8 @@
       <c r="B634" s="30">
         <v>10550</v>
       </c>
-      <c r="F634" s="30">
-        <v>1</v>
+      <c r="F634" s="21">
+        <v>0</v>
       </c>
       <c r="G634" s="30" t="s">
         <v>1133</v>
@@ -58741,8 +58741,8 @@
       <c r="B635" s="30">
         <v>10551</v>
       </c>
-      <c r="F635" s="30">
-        <v>1</v>
+      <c r="F635" s="21">
+        <v>0</v>
       </c>
       <c r="G635" s="30" t="s">
         <v>1615</v>
@@ -58809,8 +58809,8 @@
       <c r="B636" s="30">
         <v>10552</v>
       </c>
-      <c r="F636" s="30">
-        <v>1</v>
+      <c r="F636" s="21">
+        <v>0</v>
       </c>
       <c r="G636" s="30" t="s">
         <v>1615</v>
@@ -58877,8 +58877,8 @@
       <c r="B637" s="30">
         <v>10553</v>
       </c>
-      <c r="F637" s="30">
-        <v>1</v>
+      <c r="F637" s="21">
+        <v>0</v>
       </c>
       <c r="G637" s="30" t="s">
         <v>1615</v>
@@ -58945,8 +58945,8 @@
       <c r="B638" s="30">
         <v>10554</v>
       </c>
-      <c r="F638" s="30">
-        <v>1</v>
+      <c r="F638" s="21">
+        <v>0</v>
       </c>
       <c r="G638" s="30" t="s">
         <v>1615</v>
@@ -59013,8 +59013,8 @@
       <c r="B639" s="30">
         <v>10555</v>
       </c>
-      <c r="F639" s="30">
-        <v>1</v>
+      <c r="F639" s="21">
+        <v>0</v>
       </c>
       <c r="G639" s="30" t="s">
         <v>1615</v>
@@ -59081,8 +59081,8 @@
       <c r="B640" s="30">
         <v>10556</v>
       </c>
-      <c r="F640" s="30">
-        <v>1</v>
+      <c r="F640" s="21">
+        <v>0</v>
       </c>
       <c r="G640" s="30" t="s">
         <v>1615</v>
@@ -59149,8 +59149,8 @@
       <c r="B641" s="30">
         <v>10557</v>
       </c>
-      <c r="F641" s="30">
-        <v>1</v>
+      <c r="F641" s="21">
+        <v>0</v>
       </c>
       <c r="G641" s="30" t="s">
         <v>1615</v>
@@ -59217,8 +59217,8 @@
       <c r="B642" s="30">
         <v>10558</v>
       </c>
-      <c r="F642" s="30">
-        <v>1</v>
+      <c r="F642" s="21">
+        <v>0</v>
       </c>
       <c r="G642" s="30" t="s">
         <v>1615</v>
@@ -59285,8 +59285,8 @@
       <c r="B643" s="30">
         <v>10559</v>
       </c>
-      <c r="F643" s="30">
-        <v>1</v>
+      <c r="F643" s="21">
+        <v>0</v>
       </c>
       <c r="G643" s="30" t="s">
         <v>1615</v>
@@ -59353,8 +59353,8 @@
       <c r="B644" s="30">
         <v>10560</v>
       </c>
-      <c r="F644" s="30">
-        <v>1</v>
+      <c r="F644" s="21">
+        <v>0</v>
       </c>
       <c r="G644" s="30" t="s">
         <v>1615</v>
@@ -59421,8 +59421,8 @@
       <c r="B645" s="30">
         <v>10561</v>
       </c>
-      <c r="F645" s="30">
-        <v>1</v>
+      <c r="F645" s="21">
+        <v>0</v>
       </c>
       <c r="G645" s="30" t="s">
         <v>1615</v>
@@ -59489,8 +59489,8 @@
       <c r="B646" s="30">
         <v>10562</v>
       </c>
-      <c r="F646" s="30">
-        <v>1</v>
+      <c r="F646" s="21">
+        <v>0</v>
       </c>
       <c r="G646" s="30" t="s">
         <v>1615</v>
@@ -59681,8 +59681,8 @@
       <c r="B649" s="30">
         <v>10565</v>
       </c>
-      <c r="F649" s="30">
-        <v>1</v>
+      <c r="F649" s="21">
+        <v>0</v>
       </c>
       <c r="G649" s="30" t="s">
         <v>1385</v>
@@ -59743,8 +59743,8 @@
       <c r="B650" s="30">
         <v>10566</v>
       </c>
-      <c r="F650" s="30">
-        <v>1</v>
+      <c r="F650" s="21">
+        <v>0</v>
       </c>
       <c r="G650" s="30" t="s">
         <v>1385</v>
@@ -59805,8 +59805,8 @@
       <c r="B651" s="30">
         <v>10567</v>
       </c>
-      <c r="F651" s="30">
-        <v>1</v>
+      <c r="F651" s="21">
+        <v>0</v>
       </c>
       <c r="G651" s="30" t="s">
         <v>1385</v>
@@ -59867,8 +59867,8 @@
       <c r="B652" s="30">
         <v>10568</v>
       </c>
-      <c r="F652" s="30">
-        <v>1</v>
+      <c r="F652" s="21">
+        <v>0</v>
       </c>
       <c r="G652" s="30" t="s">
         <v>1385</v>
@@ -59929,8 +59929,8 @@
       <c r="B653" s="30">
         <v>10569</v>
       </c>
-      <c r="F653" s="30">
-        <v>1</v>
+      <c r="F653" s="21">
+        <v>0</v>
       </c>
       <c r="G653" s="30" t="s">
         <v>1385</v>
@@ -59991,8 +59991,8 @@
       <c r="B654" s="30">
         <v>10570</v>
       </c>
-      <c r="F654" s="30">
-        <v>1</v>
+      <c r="F654" s="21">
+        <v>0</v>
       </c>
       <c r="G654" s="30" t="s">
         <v>1385</v>
@@ -60043,6 +60043,440 @@
         <v>1</v>
       </c>
       <c r="AM654" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:39">
+      <c r="A655" s="21">
+        <v>654</v>
+      </c>
+      <c r="B655" s="30">
+        <v>10571</v>
+      </c>
+      <c r="F655" s="30">
+        <v>1</v>
+      </c>
+      <c r="G655" s="30" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J655" s="30" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L655" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M655" s="28">
+        <v>0</v>
+      </c>
+      <c r="N655" s="28">
+        <v>0</v>
+      </c>
+      <c r="O655" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P655" s="30">
+        <v>99800</v>
+      </c>
+      <c r="Q655" s="30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="R655" s="52" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W655" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X655" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y655" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z655" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH655" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI655" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL655" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:39">
+      <c r="A656" s="21">
+        <v>655</v>
+      </c>
+      <c r="B656" s="30">
+        <v>10572</v>
+      </c>
+      <c r="F656" s="30">
+        <v>1</v>
+      </c>
+      <c r="G656" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J656" s="30" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L656" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M656" s="28">
+        <v>0</v>
+      </c>
+      <c r="N656" s="28">
+        <v>0</v>
+      </c>
+      <c r="O656" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P656" s="30">
+        <v>49800</v>
+      </c>
+      <c r="Q656" s="30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="R656" s="52" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W656" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X656" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y656" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z656" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH656" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI656" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL656" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:39">
+      <c r="A657" s="21">
+        <v>656</v>
+      </c>
+      <c r="B657" s="30">
+        <v>10573</v>
+      </c>
+      <c r="F657" s="30">
+        <v>1</v>
+      </c>
+      <c r="G657" s="30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J657" s="30" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L657" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M657" s="28">
+        <v>0</v>
+      </c>
+      <c r="N657" s="28">
+        <v>0</v>
+      </c>
+      <c r="O657" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P657" s="30">
+        <v>29800</v>
+      </c>
+      <c r="Q657" s="30" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R657" s="52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W657" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X657" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y657" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z657" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH657" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI657" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL657" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:39">
+      <c r="A658" s="21">
+        <v>657</v>
+      </c>
+      <c r="B658" s="30">
+        <v>10574</v>
+      </c>
+      <c r="F658" s="30">
+        <v>1</v>
+      </c>
+      <c r="G658" s="30" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J658" s="30" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L658" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M658" s="28">
+        <v>0</v>
+      </c>
+      <c r="N658" s="28">
+        <v>0</v>
+      </c>
+      <c r="O658" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P658" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q658" s="30" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R658" s="52" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W658" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X658" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y658" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z658" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH658" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI658" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL658" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:39">
+      <c r="A659" s="21">
+        <v>658</v>
+      </c>
+      <c r="B659" s="30">
+        <v>10575</v>
+      </c>
+      <c r="F659" s="30">
+        <v>1</v>
+      </c>
+      <c r="G659" s="30" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J659" s="30" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L659" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M659" s="28">
+        <v>0</v>
+      </c>
+      <c r="N659" s="28">
+        <v>0</v>
+      </c>
+      <c r="O659" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P659" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q659" s="30" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R659" s="52" t="s">
+        <v>1122</v>
+      </c>
+      <c r="W659" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X659" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y659" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z659" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH659" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI659" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL659" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:39">
+      <c r="A660" s="21">
+        <v>659</v>
+      </c>
+      <c r="B660" s="30">
+        <v>10576</v>
+      </c>
+      <c r="F660" s="30">
+        <v>1</v>
+      </c>
+      <c r="G660" s="30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J660" s="30" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L660" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M660" s="28">
+        <v>0</v>
+      </c>
+      <c r="N660" s="28">
+        <v>0</v>
+      </c>
+      <c r="O660" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P660" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q660" s="30" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R660" s="52" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W660" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X660" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y660" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z660" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH660" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI660" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL660" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:39">
+      <c r="A661" s="21">
+        <v>660</v>
+      </c>
+      <c r="B661" s="30">
+        <v>10577</v>
+      </c>
+      <c r="F661" s="30">
+        <v>1</v>
+      </c>
+      <c r="G661" s="30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J661" s="30" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L661" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M661" s="28">
+        <v>0</v>
+      </c>
+      <c r="N661" s="28">
+        <v>0</v>
+      </c>
+      <c r="O661" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P661" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Q661" s="30" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R661" s="52" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W661" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X661" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y661" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z661" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH661" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI661" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL661" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="30">
         <v>1</v>
       </c>
     </row>
